--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticeFile\OrderProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901CA2B-28B8-41C3-9F98-C7F69B81D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912E60F-9257-47C1-A964-C642796D7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="975" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>item</t>
   </si>
@@ -37,36 +37,6 @@
     <t>pic_route</t>
   </si>
   <si>
-    <t>奶茶</t>
-  </si>
-  <si>
-    <t>MilkTea.jpg</t>
-  </si>
-  <si>
-    <t>綠茶</t>
-  </si>
-  <si>
-    <t>GreenTea.jpg</t>
-  </si>
-  <si>
-    <t>紅茶</t>
-  </si>
-  <si>
-    <t>BlackTea.jpg</t>
-  </si>
-  <si>
-    <t>炸雞</t>
-  </si>
-  <si>
-    <t>FriedChicken.jpg</t>
-  </si>
-  <si>
-    <t>白開水</t>
-  </si>
-  <si>
-    <t>Water.jpg</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -101,13 +71,396 @@
   </si>
   <si>
     <t>全糖</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煙燻花枝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   ( 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ± 10g )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頂規熟小卷</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   ( 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台斤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ± 10g )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鮮凍軟絲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>  (一隻 400g ± 10%)</t>
+    </r>
+  </si>
+  <si>
+    <t>p5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>品元堂頂級豪華佛跳牆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>( 2200g)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>熟白蝦 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>( 1.1Kg/盒 ）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煙燻花枝</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>( 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 10g )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t> + 熟小卷  ( 1台斤 ± 10g )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煙燻花枝</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>( 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 10g ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>熟小卷</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台斤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 10g ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Docs-Roboto"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> + 品元堂佛跳牆  ( 2200g )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +480,82 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFD3CFC9"/>
+      <name val="Docs-Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Docs-Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Docs-Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Docs-Roboto"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Docs-Roboto"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,17 +589,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,18 +910,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,60 +933,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3" ht="26.5" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>60</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>90</v>
+        <v>880</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.5">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8">
+        <v>980</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="32.5">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1770</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -540,52 +1027,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6532F1A8-D1D8-4E32-A2B3-2BF9CFD75B74}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticeFile\OrderProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912E60F-9257-47C1-A964-C642796D7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274F305-0228-45AE-8041-21790350C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="975" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>item</t>
   </si>
@@ -73,47 +73,6 @@
     <t>全糖</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>煙燻花枝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   ( 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ± 10g )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p1.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,167 +81,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頂規熟小卷</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   ( 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台斤</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ± 10g )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p3.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p4.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙燻花枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頂規熟小卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品元堂頂級豪華佛跳牆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 2200g)</t>
   </si>
   <si>
     <r>
       <t>鮮凍軟絲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>  (一隻 400g ± 10%)</t>
-    </r>
-  </si>
-  <si>
-    <t>p5.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>品元堂頂級豪華佛跳牆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>( 2200g)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p7.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>熟白蝦 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>( 1.1Kg/盒 ）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>煙燻花枝</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>( 1</t>
     </r>
     <r>
       <rPr>
@@ -291,64 +130,13 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>台斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 10g )</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t> + 熟小卷  ( 1台斤 ± 10g )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>煙燻花枝</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>( 1</t>
+      <t>熟白蝦 </t>
     </r>
     <r>
       <rPr>
@@ -357,102 +145,39 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>台斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 10g ) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>熟小卷</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ( 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台斤</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 10g ) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Docs-Roboto"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t> + 品元堂佛跳牆  ( 2200g )</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙拼組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三重好禮組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1台斤 ± 10g )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ( 1台斤 ± 10g )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (一隻 400g ± 10%)</t>
+  </si>
+  <si>
+    <t>( 1.1Kg/盒 ）</t>
+  </si>
+  <si>
+    <t>煙燻花枝  ( 1台斤± 10g ) +
+熟小卷  ( 1台斤 ± 10g )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙燻花枝  ( 1台斤 ± 10g )   +
+ 熟小卷  ( 1台斤 ± 10g )  + 
+品元堂佛跳牆  ( 2200g )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,13 +214,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFD3CFC9"/>
@@ -505,38 +223,7 @@
     <font>
       <b/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Docs-Roboto"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Docs-Roboto"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Docs-Roboto"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -547,13 +234,8 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Docs-Roboto"/>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -604,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -612,24 +294,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -910,111 +591,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.5" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>580</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
-        <v>580</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>490</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>880</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2">
+        <v>280</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
-        <v>490</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
-        <v>880</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:4" ht="24">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>980</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1770</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
-        <v>280</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2">
-        <v>700</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21.5">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8">
-        <v>980</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32.5">
-      <c r="A8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1770</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,9 +738,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26" thickBot="1">
+    <row r="2" spans="1:4" ht="27" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26" thickBot="1">
+    <row r="3" spans="1:4" ht="27" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,5 +785,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticeFile\OrderProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274F305-0228-45AE-8041-21790350C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA1A252-9CFC-494A-8F42-7930C7FEEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="975" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -158,25 +158,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ( 1台斤 ± 10g )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ( 1台斤 ± 10g )</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (一隻 400g ± 10%)</t>
   </si>
   <si>
     <t>( 1.1Kg/盒 ）</t>
   </si>
   <si>
-    <t>煙燻花枝  ( 1台斤± 10g ) +
-熟小卷  ( 1台斤 ± 10g )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煙燻花枝  ( 1台斤 ± 10g )   +
- 熟小卷  ( 1台斤 ± 10g )  + 
+    <t xml:space="preserve"> ( 一台斤 ± 10% )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ( 1台斤 ± 10% )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙燻花枝  ( 1台斤± 10% ) +
+熟小卷  ( 1台斤 ± 10% )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙燻花枝  ( 1台斤 ± 10% )   +
+ 熟小卷  ( 1台斤 ± 10% )  + 
 品元堂佛跳牆  ( 2200g )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,7 +596,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -622,7 +624,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>580</v>
@@ -636,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>490</v>
@@ -664,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>280</v>
@@ -678,7 +680,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>700</v>
